--- a/Excel/Mapper Sheet Updated.xlsx
+++ b/Excel/Mapper Sheet Updated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\FYP_Aabi Zaraat.ai\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1293D10F-61EF-4848-A59F-379F078172BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C9EED8-69B4-4392-BBAC-22F86AA1BC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
-  <si>
-    <t xml:space="preserve">Fish </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
   <si>
     <t>Soil</t>
   </si>
   <si>
-    <t>Angelfish</t>
-  </si>
-  <si>
-    <t>Kitefish</t>
-  </si>
-  <si>
-    <t>Black Ghost Knifefish</t>
-  </si>
-  <si>
     <t>King Firefish</t>
   </si>
   <si>
@@ -51,9 +39,6 @@
     <t>Catfish</t>
   </si>
   <si>
-    <t>Demasonic Cichlid</t>
-  </si>
-  <si>
     <t>Green Severum</t>
   </si>
   <si>
@@ -63,93 +48,30 @@
     <t>Carp</t>
   </si>
   <si>
-    <t>Clownfish Nemo</t>
-  </si>
-  <si>
-    <t>Cichlid Koi</t>
-  </si>
-  <si>
-    <t>Skatefish</t>
-  </si>
-  <si>
-    <t>Tetrafamily</t>
-  </si>
-  <si>
     <t>Red Jewel</t>
   </si>
   <si>
-    <t>Red Tetrastick</t>
-  </si>
-  <si>
-    <t>Oscarfish</t>
-  </si>
-  <si>
     <t>Mono Angel</t>
   </si>
   <si>
-    <t>Shrimp chiplat</t>
-  </si>
-  <si>
-    <t>Pirate Chiplat</t>
-  </si>
-  <si>
     <t>Silver Carp Fish</t>
   </si>
   <si>
-    <t>Pirate Fish</t>
-  </si>
-  <si>
-    <t>Jalebi Poplet Fish</t>
-  </si>
-  <si>
-    <t>Big Rahu Fish</t>
-  </si>
-  <si>
-    <t>Zandia Fish</t>
-  </si>
-  <si>
     <t>Dhari Fish</t>
   </si>
   <si>
     <t>Rahu Fish</t>
   </si>
   <si>
-    <t>Takkan Fish</t>
-  </si>
-  <si>
-    <t>Poplet Fish</t>
-  </si>
-  <si>
-    <t>Catfish_edible</t>
-  </si>
-  <si>
     <t>Dilwar Fish</t>
   </si>
   <si>
-    <t>Nysa Fish</t>
-  </si>
-  <si>
-    <t>Ringy Fish</t>
-  </si>
-  <si>
-    <t>Moe Fish</t>
-  </si>
-  <si>
     <t>Red Snapper Fish</t>
   </si>
   <si>
     <t>Black Water Rahu</t>
   </si>
   <si>
-    <t>Hira Fish</t>
-  </si>
-  <si>
-    <t>Sapphy Fish</t>
-  </si>
-  <si>
-    <t>Serum Fish</t>
-  </si>
-  <si>
     <t>Saline</t>
   </si>
   <si>
@@ -157,6 +79,90 @@
   </si>
   <si>
     <t>Mixture</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Ringi Cat Fish</t>
+  </si>
+  <si>
+    <t>Tacan Fish</t>
+  </si>
+  <si>
+    <t>Zandia or Dhandia Fish</t>
+  </si>
+  <si>
+    <t>Heera Fish</t>
+  </si>
+  <si>
+    <t>Jalabi Paplet Fish</t>
+  </si>
+  <si>
+    <t>Parrot Fish</t>
+  </si>
+  <si>
+    <t>Big Raho Fish</t>
+  </si>
+  <si>
+    <t>Paplet Fish</t>
+  </si>
+  <si>
+    <t>Moi Fish</t>
+  </si>
+  <si>
+    <t>Safi Fish</t>
+  </si>
+  <si>
+    <t>Sarum Fish</t>
+  </si>
+  <si>
+    <t>Naiser Fish</t>
+  </si>
+  <si>
+    <t>Cat Fish</t>
+  </si>
+  <si>
+    <t>ShrimpChiplet</t>
+  </si>
+  <si>
+    <t>Skate Fish</t>
+  </si>
+  <si>
+    <t>Pirate Chiplet</t>
+  </si>
+  <si>
+    <t>Red Tetratick</t>
+  </si>
+  <si>
+    <t>Oscar Fish</t>
+  </si>
+  <si>
+    <t>Tekra Family</t>
+  </si>
+  <si>
+    <t>Clownfish (Nemo)</t>
+  </si>
+  <si>
+    <t>Black Ghost Knife Fish</t>
+  </si>
+  <si>
+    <t>Demasoni Cichlid</t>
+  </si>
+  <si>
+    <t>Kite Fish</t>
+  </si>
+  <si>
+    <t>Angel Fish</t>
+  </si>
+  <si>
+    <t>KoiQue</t>
+  </si>
+  <si>
+    <t>Names Upd</t>
+  </si>
+  <si>
+    <t>✓</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,8 +217,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -230,17 +242,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -264,43 +265,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,338 +646,457 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="17" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B33" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="B37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B39" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="B40" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>41</v>
+      <c r="C40" s="21" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
